--- a/sputnik/personal/uch/uch294.xlsx
+++ b/sputnik/personal/uch/uch294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -46,6 +43,12 @@
   </si>
   <si>
     <t>Начислены пени за просрочку оплаты на 110 кал.дн 11369,94 х 0,1% х 110</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №294</t>
   </si>
 </sst>
 </file>
@@ -78,9 +81,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -144,37 +148,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,22 +170,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,7 +493,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -532,10 +507,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
+      <c r="A2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -544,11 +521,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>11322.84</v>
@@ -556,11 +533,11 @@
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>43316</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
@@ -568,11 +545,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="A5" s="10">
         <v>43466</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>904.32</v>
@@ -580,11 +557,11 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="10">
         <v>43586</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7">
         <v>10465.620000000001</v>
@@ -592,11 +569,11 @@
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="A7" s="10">
         <v>43850</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6">
@@ -604,23 +581,23 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>43850</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
         <v>10465.620000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>43850</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
+      <c r="B9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="8">
         <v>1250.69</v>
@@ -634,9 +611,6 @@
       <c r="D10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch294.xlsx
+++ b/sputnik/personal/uch/uch294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №294</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +186,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,10 +497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -605,10 +612,34 @@
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="14">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12227.16</v>
+      </c>
       <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch294.xlsx
+++ b/sputnik/personal/uch/uch294.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Начислена компенсация арендной платы за зем.уч. с 01.01.21 по 31.12.21</t>
   </si>
 </sst>
 </file>
@@ -500,7 +506,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,15 +630,27 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="14">
+        <v>44317</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>12556.86</v>
+      </c>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="14">
+        <v>44197</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7">
+        <v>464.59</v>
+      </c>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
